--- a/FDS/test_output/Primer_order.xlsx
+++ b/FDS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,912 +436,504 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-1</t>
+          <t>dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-2</t>
+          <t>dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-3</t>
+          <t>dxs_sub_933_C_T_sub-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-4</t>
+          <t>dxs_sub_933_C_T_sub-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-7</t>
+          <t>dxs_sub_933_C_T_sub-7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-8</t>
+          <t>dxs_sub_933_C_T_sub-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-1</t>
+          <t>test-dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AACGCGAAGGTCGGTTTTTC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-2</t>
+          <t>test-dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-1</t>
+          <t>tktA_573_12bp_sub-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGGTTCTGACGGGAGAGGAT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-2</t>
+          <t>tktA_573_12bp_sub-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-3</t>
+          <t>tktA_573_12bp_sub-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-4</t>
+          <t>tktA_573_12bp_sub-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CACCTGCGCATCACTCAAAC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-7</t>
+          <t>tktA_573_12bp_sub-7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-8</t>
+          <t>tktA_573_12bp_sub-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-1</t>
+          <t>test-tktA_573_12bp_sub-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AACTTCTGAACCGGTAGCGA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-2</t>
+          <t>test-tktA_573_12bp_sub-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AGCGCATTGGCAATAGTTGTC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-1</t>
+          <t>aceE_del-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-2</t>
+          <t>aceE_del-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGCGCGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-3</t>
+          <t>aceE_del-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGG</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-4</t>
+          <t>aceE_del-4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-7</t>
+          <t>aceE_del-7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-8</t>
+          <t>aceE_del-8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-1</t>
+          <t>test-aceE_del-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ACGTAAAGTCTACATTTGTGCA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-2</t>
+          <t>test-aceE_del-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-1</t>
+          <t>pntA_promoter_sub-1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-2</t>
+          <t>pntA_promoter_sub-2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGGACGCGGACAGGCCTTCACG</t>
+          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-3</t>
+          <t>pntA_promoter_sub-3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGT</t>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-4</t>
+          <t>pntA_promoter_sub-4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-7</t>
+          <t>pntA_promoter_sub-7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-8</t>
+          <t>pntA_promoter_sub-8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-1</t>
+          <t>test-pntA_promoter_sub-1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>TAATTTCGCCCGCACGGAT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-2</t>
+          <t>test-pntA_promoter_sub-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>TGTCGAACGGGACCATCATC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-1</t>
+          <t>Cgl1452_ins-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>CACTGCGCGGGATTTTATGG</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-2</t>
+          <t>Cgl1452_ins-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACG</t>
+          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-3</t>
+          <t>Cgl1452_ins-3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGA</t>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-4</t>
+          <t>Cgl1452_ins-4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
+          <t>CGATGTCGCTGGCGTTAATG</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-7</t>
+          <t>Cgl1452_ins-7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AATAGGCGTATCACGAGGCC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-8</t>
+          <t>Cgl1452_ins-8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-1</t>
+          <t>Cgl1452_ins-5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>CGCGCCAAAAAGAGTATTGACT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-2</t>
+          <t>Cgl1452_ins-6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-1</t>
+          <t>test-Cgl1452_ins-1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
+          <t>AGTCGCTAAAGTCAGGCCAT</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-2</t>
+          <t>test-Cgl1452_ins-2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTTTTACGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-3</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-4</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-7</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins-8</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_90_ins-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-3</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-4</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-7</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del-8</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-3</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-4</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>AATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-7</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-8</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-5</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins-6</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-2</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-3</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-4</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-7</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-8</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-5</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub-6</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0006_Cgl0005_sub-2</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ATAGTTGATGTCCTGCGCGG</t>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
     </row>

--- a/FDS/test_output/Primer_order.xlsx
+++ b/FDS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-1</t>
+          <t>b0003-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GTAAGCTCCTGGGGCTTCAC</t>
+          <t>ACTTACGTGTCTGCGGTGTT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-2</t>
+          <t>b0003-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
+          <t>GGCCTCGTGATACGCCTATTGTCAGACTCCTAACTTCCATGAGA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-3</t>
+          <t>b0003-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
+          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-4</t>
+          <t>b0003-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAGTCACTCGATACCTCGGC</t>
+          <t>GCATTGTCTGTTGCGTGGTT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-7</t>
+          <t>b0003-7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dxs_sub_933_C_T_sub-8</t>
+          <t>b0003-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,79 +508,79 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-dxs_sub_933_C_T_sub-1</t>
+          <t>test-b0003-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AACGCGAAGGTCGGTTTTTC</t>
+          <t>TCAGATGCTGTTCAATACCGA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-dxs_sub_933_C_T_sub-2</t>
+          <t>test-b0003-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TGCCGACCAGCAACTTGG</t>
+          <t>GTGCCGAGGAACAAGCCATA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-1</t>
+          <t>b0004-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AGGTTCTGACGGGAGAGGAT</t>
+          <t>CAATGACGTTACAGCTGCCG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-2</t>
+          <t>b0004-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
+          <t>GGCCTCGTGATACGCCTATTTTAGTTTTCCAGTACTCGTGCG</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-3</t>
+          <t>b0004-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
+          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-4</t>
+          <t>b0004-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CACCTGCGCATCACTCAAAC</t>
+          <t>ATCCGTCTTGAGAATGCCCG</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-7</t>
+          <t>b0004-7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>tktA_573_12bp_sub-8</t>
+          <t>b0004-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,79 +604,79 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test-tktA_573_12bp_sub-1</t>
+          <t>test-b0004-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AACTTCTGAACCGGTAGCGA</t>
+          <t>GCGTGAAGATTGCCGAAGTG</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test-tktA_573_12bp_sub-2</t>
+          <t>test-b0004-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AGCGCATTGGCAATAGTTGTC</t>
+          <t>CGAAACCTTCAGCGAAGACG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-1</t>
+          <t>b0005-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GCGTCACAGACATGAAATTGGT</t>
+          <t>TCTGTACATTGGGCGGCAAT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-2</t>
+          <t>b0005-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
+          <t>GGCCTCGTGATACGCCTATTAGGTTACTCCTTTTATCATTGCCC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-3</t>
+          <t>b0005-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
+          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-4</t>
+          <t>b0005-4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TTAACACCAAACTCGCGTGC</t>
+          <t>GACGCGTGGGATGATGTTTC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-7</t>
+          <t>b0005-7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>aceE_del-8</t>
+          <t>b0005-8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,240 +700,24 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>test-aceE_del-1</t>
+          <t>test-b0005-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ACGTAAAGTCTACATTTGTGCA</t>
+          <t>TGACCATTCTGACCGCGAC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test-aceE_del-2</t>
+          <t>test-b0005-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GGAGCTGCTTCTGCACGTTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CGAGGTTTGTGCCGTAAAGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-4</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ACTTGGTGATGCGGTAGTCG</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-7</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>pntA_promoter_sub-8</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>test-pntA_promoter_sub-1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>TAATTTCGCCCGCACGGAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>test-pntA_promoter_sub-2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>TGTCGAACGGGACCATCATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CACTGCGCGGGATTTTATGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CGATGTCGCTGGCGTTAATG</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-7</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AATAGGCGTATCACGAGGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-8</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-5</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CGCGCCAAAAAGAGTATTGACT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1452_ins-6</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl1452_ins-1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>AGTCGCTAAAGTCAGGCCAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl1452_ins-2</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TGACTTGTTAGCCGGTCAGC</t>
+          <t>CGCCATTTTACTGCTCTCGC</t>
         </is>
       </c>
     </row>

--- a/FDS/test_output/Primer_order.xlsx
+++ b/FDS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>b0003-1</t>
+          <t>dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ACTTACGTGTCTGCGGTGTT</t>
+          <t>GTAAGCTCCTGGGGCTTCAC</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>b0003-2</t>
+          <t>dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTGTCAGACTCCTAACTTCCATGAGA</t>
+          <t>GGCCTCGTGATACGCCTATTACCGAAAAGTAGCGGCGGTTT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>b0003-3</t>
+          <t>dxs_sub_933_C_T_sub-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAGTACCCTCTCATGGAAGTTAGGAGTCTGACATGAAACTCTACAATCTGAAAGA</t>
+          <t>CAAATAAAACGAAAGGCTCATAGCTCGGCAAACCGCCGCTACTTTTCGGTAAACAACCGCTGGAGGGATC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b0003-4</t>
+          <t>dxs_sub_933_C_T_sub-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GCATTGTCTGTTGCGTGGTT</t>
+          <t>CAGTCACTCGATACCTCGGC</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>b0003-7</t>
+          <t>dxs_sub_933_C_T_sub-7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>b0003-8</t>
+          <t>dxs_sub_933_C_T_sub-8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,79 +508,79 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-b0003-1</t>
+          <t>test-dxs_sub_933_C_T_sub-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TCAGATGCTGTTCAATACCGA</t>
+          <t>AACGCGAAGGTCGGTTTTTC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>test-b0003-2</t>
+          <t>test-dxs_sub_933_C_T_sub-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GTGCCGAGGAACAAGCCATA</t>
+          <t>TGCCGACCAGCAACTTGG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>b0004-1</t>
+          <t>tktA_573_12bp_sub-1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAATGACGTTACAGCTGCCG</t>
+          <t>AGGTTCTGACGGGAGAGGAT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>b0004-2</t>
+          <t>tktA_573_12bp_sub-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTTTAGTTTTCCAGTACTCGTGCG</t>
+          <t>GGCCTCGTGATACGCCTATTCATGTCGAGGGATGGTTCACCGACGACACC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>b0004-3</t>
+          <t>tktA_573_12bp_sub-3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCAACGGCGGGCGCACGAGTACTGGAAAACTAAAATCTATTCATTATCTCAATCAGGC</t>
+          <t>CAAATAAAACGAAAGGCTCAGGTGTCGTCGGTGAACCATCCCTCGACATGACCATCGATAGAAATACCGTTGTCA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>b0004-4</t>
+          <t>tktA_573_12bp_sub-4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATCCGTCTTGAGAATGCCCG</t>
+          <t>CACCTGCGCATCACTCAAAC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>b0004-7</t>
+          <t>tktA_573_12bp_sub-7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>b0004-8</t>
+          <t>tktA_573_12bp_sub-8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,79 +604,79 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>test-b0004-1</t>
+          <t>test-tktA_573_12bp_sub-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GCGTGAAGATTGCCGAAGTG</t>
+          <t>AACTTCTGAACCGGTAGCGA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>test-b0004-2</t>
+          <t>test-tktA_573_12bp_sub-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CGAAACCTTCAGCGAAGACG</t>
+          <t>AGCGCATTGGCAATAGTTGTC</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>b0005-1</t>
+          <t>aceE_del-1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TCTGTACATTGGGCGGCAAT</t>
+          <t>GCGTCACAGACATGAAATTGGT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>b0005-2</t>
+          <t>aceE_del-2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GGCCTCGTGATACGCCTATTAGGTTACTCCTTTTATCATTGCCC</t>
+          <t>GGCCTCGTGATACGCCTATTGGGTTATTCCTTATCTATCT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>b0005-3</t>
+          <t>aceE_del-3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CAAATAAAACGAAAGGCTCACATAACGGGCAATGATAAAAGGAGTAACCTATGACAAATGCCGGGTAACA</t>
+          <t>CAAATAAAACGAAAGGCTCACAACGTTATTAGATAGATAAGGAATAACCCGAGGTAAAAGAATAATGGCTATCGA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>b0005-4</t>
+          <t>aceE_del-4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GACGCGTGGGATGATGTTTC</t>
+          <t>TTAACACCAAACTCGCGTGC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>b0005-7</t>
+          <t>aceE_del-7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>b0005-8</t>
+          <t>aceE_del-8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,24 +700,240 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>test-b0005-1</t>
+          <t>test-aceE_del-1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TGACCATTCTGACCGCGAC</t>
+          <t>ACGTAAAGTCTACATTTGTGCA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>test-b0005-2</t>
+          <t>test-aceE_del-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CGCCATTTTACTGCTCTCGC</t>
+          <t>GGAGCTGCTTCTGCACGTTT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CGAGGTTTGTGCCGTAAAGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GGCCTCGTGATACGCCTATTGTCCTAGGTATAATGCTAGCACGAATCTAGAGAAAGATTGGACGTACCATAATGCGAATTGGCATACCAAGAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCACTAGATTCGTGCTAGCATTATACCTAGGACTGAGCTAGCTGTCAAGGCGCGGTGATAGTGGGATAAACACCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ACTTGGTGATGCGGTAGTCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>pntA_promoter_sub-8</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>test-pntA_promoter_sub-1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TAATTTCGCCCGCACGGAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>test-pntA_promoter_sub-2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TGTCGAACGGGACCATCATC</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CACTGCGCGGGATTTTATGG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TCAATACTCTTTTTGGCGCGCATGTGAACGCCTGACCAGG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CAAATAAAACGAAAGGCTCATCCGGCGACCGCTCCGAGGTTGAAGCTTAAGCATCCGGCATGAACAAAGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CGATGTCGCTGGCGTTAATG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AATAGGCGTATCACGAGGCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TGAGCCTTTCGTTTTATTTGATGC</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CGCGCCAAAAAGAGTATTGACT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Cgl1452_ins-6</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GGCCTCGTGATACGCCTATTTTAAGCTTCAACCTCGGAGCG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>test-Cgl1452_ins-1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AGTCGCTAAAGTCAGGCCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>test-Cgl1452_ins-2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TGACTTGTTAGCCGGTCAGC</t>
         </is>
       </c>
     </row>
